--- a/DDAf_2020_tableau_annexe_Tab11.xlsx
+++ b/DDAf_2020_tableau_annexe_Tab11.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7090"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="Tab11" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="176">
   <si>
     <t>Tableau 11: Indicateurs des inégalités et de la pauvreté</t>
   </si>
@@ -37,10 +37,10 @@
     <t>% de la population en extrême pauvreté ($1.90 par jour, mesure la plus récente 2010-19)(1)</t>
   </si>
   <si>
-    <t>% de la population vivant sous le seuil de pauvreté des PRMI (3.20 par jour, mesure la plus récente 2010-19)(1)</t>
-  </si>
-  <si>
-    <t>% de la population vivant sous le taux de pauvreté PRMS ($5.50 par jour, mesure la plus récente 2010-19))(1)</t>
+    <t>% de la population vivant sous le seuil de pauvreté des pays à revenu intermédiaire de la tranche inférieure (3.20 par jour, mesure la plus récente 2010-19)(1)</t>
+  </si>
+  <si>
+    <t>% de la population vivant sous le seuil de pauvreté des pays à revenu intermédiaire de la tranche supérieure ($5.50 par jour, mesure la plus récente 2010-19))(1)</t>
   </si>
   <si>
     <t>Coefficient de Gini (estimations de la Banque Mondiale, données les plus récentes 2010-19)</t>
@@ -52,19 +52,19 @@
     <t>Taux de pauvreté des travailleurs, les deux sexes (population de 15 ans et plus), 2019</t>
   </si>
   <si>
-    <t>Taux de pauvreté des travailleurs, femmes (population de 15 ans et plus), 2019</t>
-  </si>
-  <si>
-    <t>Taux de pauvreté des travailleurs, hommes (population de 15 ans et plus), 2019</t>
+    <t>Taux de pauvreté des travailleurs, de sexe féminin (population de 15 ans et plus), 2019</t>
+  </si>
+  <si>
+    <t>Taux de pauvreté des travailleurs, de sexe masculin (population de 15 ans et plus), 2019</t>
   </si>
   <si>
     <t>Taux de pauvreté des travailleurs, les deux sexes (population de 15 à 29 ans), 2019</t>
   </si>
   <si>
-    <t>Taux de pauvreté des travailleurs, femmes (population de 15 à 29 ans), 2019</t>
-  </si>
-  <si>
-    <t>Taux de pauvreté des travailleurs, hommes (population de 15 à 29 ans), 2019</t>
+    <t>Taux de pauvreté des travailleurs, de sexe féminin (population de 15 à 29 ans), 2019</t>
+  </si>
+  <si>
+    <t>Taux de pauvreté des travailleurs, de sexe masculin (population de 15 à 29 ans), 2019</t>
   </si>
   <si>
     <t>Production par travailleur (PIB en dollars internationaux constants de 2011 en PPA), 2019</t>
@@ -523,7 +523,7 @@
     <t>Note : *Pays riches en ressources ; ".."signifie que les données ne sont pas disponibles ou qu'elles ne sont pas valables.</t>
   </si>
   <si>
-    <t>RDM = "Reste du monde" ; LAC = "Pays d'Amérique latine et des Caraîbes"</t>
+    <t>RDM = "Reste du monde" ; LAC = "Pays d'Amérique latine et des Caraïbes"</t>
   </si>
   <si>
     <t>Communautées économiques régionales : CEN-SAD = "Communauté des États sahélo-sahariens ";COMESA = "Marché commun de l'Afrique orientale et australe";CAE = "Communauté d'Afrique de l'Est ";CEEAC = "Communauté économique des États de l'Afrique centrale";CÉDÉAOO = "Communauté économique des États de l'Afrique de l'Ouest";IGAD = "Autorité intergouvernementale pour le développement";CDAA = "Communauté de développement d'Afrique australe";UMA = "Union du Maghreb arabe";ASEAN = "Association des nations de l'Asie du Sud-Est";MERCOSUR = "Marché commun du Sud";</t>
@@ -535,7 +535,97 @@
     <t>Source : Indicateurs du développement dans le monde issus des statistiques du FMI sur la balance des paiements (bases de données et communiqués des banques centrales, des agences nationales de statistique et des bureaux pays de la Banque mondiale - récupérés le 16/10/2020), Organisation internationale du travail - ILOSTAT (récupéré le 16/11/2020).</t>
   </si>
   <si>
-    <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les séries chronologiques historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-fr-2020.</t>
+    <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-fr-2020.</t>
+  </si>
+  <si>
+    <t>Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails.</t>
+  </si>
+  <si>
+    <t>Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pour télécharger toutes les données de l'annexe statistique des </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dynamiques du développement en Afrique</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> au format csv compressé, y compris les données historiques remontant à 2000, cliquez ici.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pour télécharger toutes les données de l'annexe statistique des </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dynamiques du développement en Afrique</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> au format Excel non compressé, y compris les données historiques remontant à 2000, cliquez ici pour télécharger le premier des deux fichiers de données.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pour télécharger toutes les données de l'annexe statistique des </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dynamiques du développement en Afrique</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> au format Excel non compressé, y compris les données historiques remontant à 2000, cliquez ici pour télécharger le deuxième des deux fichiers de données</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -547,7 +637,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -670,6 +760,15 @@
       <i/>
       <u/>
       <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -848,9 +947,11 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -878,7 +979,9 @@
     <xf numFmtId="37" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -912,7 +1015,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -925,7 +1030,9 @@
     <xf numFmtId="37" fontId="11" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -938,7 +1045,9 @@
     <xf numFmtId="37" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -981,17 +1090,23 @@
     <xf numFmtId="37" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -1278,15 +1393,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N105"/>
+  <dimension ref="A1:N111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="51" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" style="55" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" style="57" customWidth="1"/>
     <col min="4" max="14" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1308,7 +1423,7 @@
       <c r="M1" s="3"/>
       <c r="N1" s="4"/>
     </row>
-    <row r="2" spans="1:14" ht="74" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="105.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1800,37 +1915,37 @@
         <v>36</v>
       </c>
       <c r="C13" s="25">
-        <v>42.800249244689702</v>
+        <v>38.29</v>
       </c>
       <c r="D13" s="25">
-        <v>62.524095058487802</v>
+        <v>58.81</v>
       </c>
       <c r="E13" s="25">
-        <v>78.040407879811298</v>
+        <v>76.040000000000006</v>
       </c>
       <c r="F13" s="25">
         <v>52.63</v>
       </c>
       <c r="G13" s="26">
-        <v>60.264843854035597</v>
+        <v>57.97</v>
       </c>
       <c r="H13" s="25">
-        <v>29.256753989591999</v>
+        <v>27.546206516400002</v>
       </c>
       <c r="I13" s="25">
-        <v>30.793281479349499</v>
+        <v>28.8146986175</v>
       </c>
       <c r="J13" s="26">
-        <v>27.7179859649431</v>
+        <v>26.282081578</v>
       </c>
       <c r="K13" s="25">
-        <v>31.9593750740109</v>
+        <v>31.0287153045</v>
       </c>
       <c r="L13" s="25">
-        <v>31.901046537622001</v>
+        <v>30.456200796699999</v>
       </c>
       <c r="M13" s="26">
-        <v>31.8829066799298</v>
+        <v>31.320436694200001</v>
       </c>
       <c r="N13" s="27">
         <v>19825.4031869805</v>
@@ -2240,37 +2355,37 @@
         <v>56</v>
       </c>
       <c r="C23" s="25">
-        <v>61.121238292000498</v>
+        <v>41.6142857142857</v>
       </c>
       <c r="D23" s="25">
-        <v>78.522634586015897</v>
+        <v>61.928571428571402</v>
       </c>
       <c r="E23" s="25">
-        <v>90.344756716509494</v>
+        <v>79.085714285714303</v>
       </c>
       <c r="F23" s="25">
         <v>44.828571428571401</v>
       </c>
       <c r="G23" s="26">
-        <v>49.009384365669497</v>
+        <v>50.642857142857203</v>
       </c>
       <c r="H23" s="25">
-        <v>53.744950927358701</v>
+        <v>37.911106668750001</v>
       </c>
       <c r="I23" s="25">
-        <v>55.2776965681118</v>
+        <v>39.431987276374997</v>
       </c>
       <c r="J23" s="26">
-        <v>52.325148216675402</v>
+        <v>36.5709924405</v>
       </c>
       <c r="K23" s="25">
-        <v>55.964798176795597</v>
+        <v>41.094558036499997</v>
       </c>
       <c r="L23" s="25">
-        <v>55.8376441187228</v>
+        <v>40.677483453374997</v>
       </c>
       <c r="M23" s="26">
-        <v>56.1680731401838</v>
+        <v>41.561331877249998</v>
       </c>
       <c r="N23" s="27">
         <v>5254.0658022816197</v>
@@ -2900,37 +3015,37 @@
         <v>85</v>
       </c>
       <c r="C38" s="25">
-        <v>38.757823086210003</v>
+        <v>31.2909090909091</v>
       </c>
       <c r="D38" s="25">
-        <v>69.121716640671394</v>
+        <v>53.054545454545497</v>
       </c>
       <c r="E38" s="25">
-        <v>88.632486799769893</v>
+        <v>70.890909090909105</v>
       </c>
       <c r="F38" s="25">
         <v>40.9181818181818</v>
       </c>
       <c r="G38" s="26">
-        <v>46.099413694328902</v>
+        <v>47.872727272727303</v>
       </c>
       <c r="H38" s="25">
-        <v>31.905877537360102</v>
+        <v>34.253128327454597</v>
       </c>
       <c r="I38" s="25">
-        <v>32.5007198913301</v>
+        <v>34.804632833636397</v>
       </c>
       <c r="J38" s="26">
-        <v>31.1721572790082</v>
+        <v>33.536957855909101</v>
       </c>
       <c r="K38" s="25">
-        <v>35.280025636200797</v>
+        <v>37.728656711818203</v>
       </c>
       <c r="L38" s="25">
-        <v>34.566222043704897</v>
+        <v>36.965835334090897</v>
       </c>
       <c r="M38" s="26">
-        <v>35.803521621290002</v>
+        <v>38.274971112999999</v>
       </c>
       <c r="N38" s="27">
         <v>6368.9115610377603</v>
@@ -3208,37 +3323,37 @@
         <v>98</v>
       </c>
       <c r="C45" s="25">
-        <v>2.3505115997249102</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="D45" s="25">
-        <v>17.6966828547205</v>
+        <v>13.4</v>
       </c>
       <c r="E45" s="25">
-        <v>51.453306925954898</v>
+        <v>41.54</v>
       </c>
       <c r="F45" s="25">
         <v>32.799999999999997</v>
       </c>
       <c r="G45" s="26">
-        <v>41.2571667148949</v>
+        <v>41.26</v>
       </c>
       <c r="H45" s="25">
-        <v>0.36587451341455002</v>
+        <v>0.65727221749999998</v>
       </c>
       <c r="I45" s="25">
-        <v>0.39311389508927003</v>
+        <v>0.73662551933332998</v>
       </c>
       <c r="J45" s="26">
-        <v>0.35643820263043002</v>
+        <v>0.62365390133332999</v>
       </c>
       <c r="K45" s="25">
-        <v>0.52381802199922001</v>
+        <v>0.92658633749999997</v>
       </c>
       <c r="L45" s="25">
-        <v>0.49304816859855999</v>
+        <v>0.85579441683333002</v>
       </c>
       <c r="M45" s="26">
-        <v>0.53344110168751002</v>
+        <v>0.95580286299999995</v>
       </c>
       <c r="N45" s="27">
         <v>41165.658484636202</v>
@@ -3910,37 +4025,37 @@
         <v>129</v>
       </c>
       <c r="C61" s="25">
-        <v>37.487429566475697</v>
+        <v>36.85</v>
       </c>
       <c r="D61" s="25">
-        <v>67.561829879733395</v>
+        <v>63.907142857142901</v>
       </c>
       <c r="E61" s="25">
-        <v>88.172442451895193</v>
+        <v>83.814285714285703</v>
       </c>
       <c r="F61" s="25">
         <v>39.6142857142857</v>
       </c>
       <c r="G61" s="26">
-        <v>44.148893304163202</v>
+        <v>46.471428571428604</v>
       </c>
       <c r="H61" s="25">
-        <v>34.086074013934201</v>
+        <v>31.799130874266702</v>
       </c>
       <c r="I61" s="25">
-        <v>34.083000329337601</v>
+        <v>32.493157482933299</v>
       </c>
       <c r="J61" s="26">
-        <v>34.137727407199201</v>
+        <v>31.2953638068667</v>
       </c>
       <c r="K61" s="25">
-        <v>43.775630498433699</v>
+        <v>37.432517114533297</v>
       </c>
       <c r="L61" s="25">
-        <v>39.3368567710205</v>
+        <v>35.375081923800003</v>
       </c>
       <c r="M61" s="26">
-        <v>47.109696273097903</v>
+        <v>39.379821537333299</v>
       </c>
       <c r="N61" s="27">
         <v>13748.2688900056</v>
@@ -3952,37 +4067,37 @@
         <v>130</v>
       </c>
       <c r="C62" s="30">
-        <v>35.885977947958402</v>
+        <v>32.885106382978698</v>
       </c>
       <c r="D62" s="30">
-        <v>60.715256202197601</v>
+        <v>54.614893617021302</v>
       </c>
       <c r="E62" s="30">
-        <v>81.304935911837504</v>
+        <v>73.934042553191503</v>
       </c>
       <c r="F62" s="30">
         <v>42.740425531914902</v>
       </c>
       <c r="G62" s="31">
-        <v>47.155488810506</v>
+        <v>49.3127659574468</v>
       </c>
       <c r="H62" s="30">
-        <v>29.839235814357298</v>
+        <v>28.729318530699999</v>
       </c>
       <c r="I62" s="30">
-        <v>30.4087291937578</v>
+        <v>29.565419218319999</v>
       </c>
       <c r="J62" s="31">
-        <v>29.260418843365201</v>
+        <v>27.9493534446</v>
       </c>
       <c r="K62" s="30">
-        <v>34.366814002263197</v>
+        <v>32.422122318200003</v>
       </c>
       <c r="L62" s="30">
-        <v>32.807208265103498</v>
+        <v>31.447341192540001</v>
       </c>
       <c r="M62" s="31">
-        <v>35.528612486313399</v>
+        <v>33.263036888819997</v>
       </c>
       <c r="N62" s="32">
         <v>15682.522611079499</v>
@@ -3994,37 +4109,37 @@
         <v>131</v>
       </c>
       <c r="C63" s="30">
-        <v>6.71414870566581</v>
+        <v>3.20495049504951</v>
       </c>
       <c r="D63" s="30">
-        <v>21.339499287290199</v>
+        <v>10.0326732673267</v>
       </c>
       <c r="E63" s="30">
-        <v>39.0675283916651</v>
+        <v>22.1237623762376</v>
       </c>
       <c r="F63" s="30">
         <v>35.828712871287102</v>
       </c>
       <c r="G63" s="31">
-        <v>44.9921241025352</v>
+        <v>43.217821782178198</v>
       </c>
       <c r="H63" s="30">
-        <v>4.8765581438238002</v>
+        <v>4.5498543210853697</v>
       </c>
       <c r="I63" s="30">
-        <v>5.4938694366576302</v>
+        <v>4.5963258284146402</v>
       </c>
       <c r="J63" s="31">
-        <v>4.7002805186516099</v>
+        <v>4.5395045404024401</v>
       </c>
       <c r="K63" s="30">
-        <v>6.1532172165883701</v>
+        <v>5.1287217376219498</v>
       </c>
       <c r="L63" s="30">
-        <v>6.6209086691446002</v>
+        <v>4.9796513143048804</v>
       </c>
       <c r="M63" s="31">
-        <v>6.0746288456841304</v>
+        <v>5.1533566354146396</v>
       </c>
       <c r="N63" s="32">
         <v>39899.882946488498</v>
@@ -4036,37 +4151,37 @@
         <v>132</v>
       </c>
       <c r="C64" s="35">
-        <v>3.8148239347477801</v>
+        <v>4.5894736842105299</v>
       </c>
       <c r="D64" s="35">
-        <v>9.3987768208700295</v>
+        <v>11.2736842105263</v>
       </c>
       <c r="E64" s="35">
-        <v>22.715279074665901</v>
+        <v>24.8684210526316</v>
       </c>
       <c r="F64" s="35">
         <v>45.8</v>
       </c>
       <c r="G64" s="36">
-        <v>53.628283028541198</v>
+        <v>51.257894736842097</v>
       </c>
       <c r="H64" s="35">
-        <v>2.4797012238157699</v>
+        <v>2.9372916770000002</v>
       </c>
       <c r="I64" s="35">
-        <v>2.52032036761126</v>
+        <v>2.8364874508518501</v>
       </c>
       <c r="J64" s="36">
-        <v>2.44084197080105</v>
+        <v>2.9736643134074101</v>
       </c>
       <c r="K64" s="35">
-        <v>2.2539882199838499</v>
+        <v>2.7789349266296299</v>
       </c>
       <c r="L64" s="35">
-        <v>2.2166566249627699</v>
+        <v>2.50167713266667</v>
       </c>
       <c r="M64" s="36">
-        <v>2.2478271292910201</v>
+        <v>2.8470727631481498</v>
       </c>
       <c r="N64" s="37">
         <v>31858.380605566199</v>
@@ -4078,37 +4193,37 @@
         <v>133</v>
       </c>
       <c r="C65" s="39">
-        <v>9.3339106027386691</v>
+        <v>5.8583333333333396</v>
       </c>
       <c r="D65" s="39">
-        <v>30.3342394788787</v>
+        <v>21.912500000000001</v>
       </c>
       <c r="E65" s="39">
-        <v>54.398746838646701</v>
+        <v>46.2291666666667</v>
       </c>
       <c r="F65" s="39">
         <v>34.975000000000001</v>
       </c>
       <c r="G65" s="36">
-        <v>44.606430360667602</v>
+        <v>43.058333333333302</v>
       </c>
       <c r="H65" s="39">
-        <v>5.7295343022028797</v>
+        <v>8.3183441971333405</v>
       </c>
       <c r="I65" s="39">
-        <v>6.4912394599726904</v>
+        <v>8.3999808951333303</v>
       </c>
       <c r="J65" s="36">
-        <v>5.5245745879359198</v>
+        <v>8.3932403773666699</v>
       </c>
       <c r="K65" s="39">
-        <v>7.3574954061003304</v>
+        <v>9.5552914145999992</v>
       </c>
       <c r="L65" s="39">
-        <v>7.9569587403238096</v>
+        <v>9.4416164325666703</v>
       </c>
       <c r="M65" s="36">
-        <v>7.2569186269174502</v>
+        <v>9.5313499492666693</v>
       </c>
       <c r="N65" s="37">
         <v>25153.0731091913</v>
@@ -4120,37 +4235,37 @@
         <v>134</v>
       </c>
       <c r="C66" s="35">
-        <v>11.654058152204</v>
+        <v>12.6304054054054</v>
       </c>
       <c r="D66" s="35">
-        <v>28.0073250150832</v>
+        <v>24.1905405405405</v>
       </c>
       <c r="E66" s="35">
-        <v>46.219941312815997</v>
+        <v>38.577027027027</v>
       </c>
       <c r="F66" s="35">
         <v>38.023648648648603</v>
       </c>
       <c r="G66" s="36">
-        <v>45.358464713830102</v>
+        <v>45.153378378378399</v>
       </c>
       <c r="H66" s="35">
-        <v>9.7747306003294305</v>
+        <v>13.7087422792727</v>
       </c>
       <c r="I66" s="35">
-        <v>10.382659070150501</v>
+        <v>14.0543157488333</v>
       </c>
       <c r="J66" s="36">
-        <v>9.5194667717387507</v>
+        <v>13.4068715495682</v>
       </c>
       <c r="K66" s="35">
-        <v>11.6892844806254</v>
+        <v>15.467131048446999</v>
       </c>
       <c r="L66" s="35">
-        <v>11.759180016137901</v>
+        <v>15.005291419697</v>
       </c>
       <c r="M66" s="36">
-        <v>11.8540846118898</v>
+        <v>15.800962792007599</v>
       </c>
       <c r="N66" s="37">
         <v>35774.498681823097</v>
@@ -4162,37 +4277,37 @@
         <v>135</v>
       </c>
       <c r="C67" s="41">
-        <v>38.797921278115901</v>
+        <v>35.633333333333297</v>
       </c>
       <c r="D67" s="41">
-        <v>64.219381206455594</v>
+        <v>55.433333333333302</v>
       </c>
       <c r="E67" s="41">
-        <v>85.564958296440693</v>
+        <v>72.838888888888903</v>
       </c>
       <c r="F67" s="41">
         <v>41.961111111111101</v>
       </c>
       <c r="G67" s="42">
-        <v>46.060974632817299</v>
+        <v>48.8611111111111</v>
       </c>
       <c r="H67" s="41">
-        <v>32.333245837107498</v>
+        <v>32.2856272028421</v>
       </c>
       <c r="I67" s="41">
-        <v>32.922439435243298</v>
+        <v>32.986861131157902</v>
       </c>
       <c r="J67" s="42">
-        <v>31.660963557894899</v>
+        <v>31.500698076684198</v>
       </c>
       <c r="K67" s="41">
-        <v>34.633110314250303</v>
+        <v>34.841510059947403</v>
       </c>
       <c r="L67" s="41">
-        <v>33.913841588582798</v>
+        <v>34.100349248579001</v>
       </c>
       <c r="M67" s="42">
-        <v>35.221147052524202</v>
+        <v>35.454942672999998</v>
       </c>
       <c r="N67" s="43">
         <v>12980.3941314477</v>
@@ -4204,37 +4319,37 @@
         <v>136</v>
       </c>
       <c r="C68" s="39">
-        <v>26.3328838312481</v>
+        <v>28.27</v>
       </c>
       <c r="D68" s="39">
-        <v>53.448180948680204</v>
+        <v>52.84</v>
       </c>
       <c r="E68" s="39">
-        <v>79.335569063829993</v>
+        <v>75.915000000000006</v>
       </c>
       <c r="F68" s="39">
         <v>38.884999999999998</v>
       </c>
       <c r="G68" s="36">
-        <v>43.704246890656798</v>
+        <v>45.87</v>
       </c>
       <c r="H68" s="39">
-        <v>24.738719677137301</v>
+        <v>28.219970131583299</v>
       </c>
       <c r="I68" s="39">
-        <v>24.6095470719122</v>
+        <v>28.640529729499999</v>
       </c>
       <c r="J68" s="36">
-        <v>24.796938846353498</v>
+        <v>27.849301746583301</v>
       </c>
       <c r="K68" s="39">
-        <v>30.9749197437107</v>
+        <v>32.409490256124997</v>
       </c>
       <c r="L68" s="39">
-        <v>28.052401330695499</v>
+        <v>30.820974262041702</v>
       </c>
       <c r="M68" s="36">
-        <v>33.1365537509352</v>
+        <v>33.838279196291701</v>
       </c>
       <c r="N68" s="37">
         <v>19362.2034039668</v>
@@ -4246,37 +4361,37 @@
         <v>137</v>
       </c>
       <c r="C69" s="39">
-        <v>45.8419020367581</v>
+        <v>51.46</v>
       </c>
       <c r="D69" s="39">
-        <v>73.115143919610105</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="E69" s="39">
-        <v>89.594374883419107</v>
+        <v>90.98</v>
       </c>
       <c r="F69" s="39">
         <v>41.28</v>
       </c>
       <c r="G69" s="36">
-        <v>48.418712460936497</v>
+        <v>48.5</v>
       </c>
       <c r="H69" s="39">
-        <v>36.761759820110797</v>
+        <v>43.892303874</v>
       </c>
       <c r="I69" s="39">
-        <v>38.336528389950701</v>
+        <v>45.345677557999998</v>
       </c>
       <c r="J69" s="36">
-        <v>35.255802152647803</v>
+        <v>42.456475478000002</v>
       </c>
       <c r="K69" s="39">
-        <v>41.0218672860046</v>
+        <v>47.681758742</v>
       </c>
       <c r="L69" s="39">
-        <v>41.068454075131299</v>
+        <v>47.241829328000001</v>
       </c>
       <c r="M69" s="36">
-        <v>41.014294997240697</v>
+        <v>48.202498614</v>
       </c>
       <c r="N69" s="37">
         <v>5771.8305772923804</v>
@@ -4288,37 +4403,37 @@
         <v>138</v>
       </c>
       <c r="C70" s="39">
-        <v>59.275769057746601</v>
+        <v>44.4</v>
       </c>
       <c r="D70" s="39">
-        <v>77.758712242653203</v>
+        <v>65.2222222222222</v>
       </c>
       <c r="E70" s="39">
-        <v>90.273996703689804</v>
+        <v>81.644444444444503</v>
       </c>
       <c r="F70" s="39">
         <v>45.422222222222203</v>
       </c>
       <c r="G70" s="36">
-        <v>50.217288975574</v>
+        <v>51.211111111111101</v>
       </c>
       <c r="H70" s="39">
-        <v>49.261526231603099</v>
+        <v>37.901256349999997</v>
       </c>
       <c r="I70" s="39">
-        <v>50.628894016052698</v>
+        <v>39.272228820099997</v>
       </c>
       <c r="J70" s="36">
-        <v>47.977447656187202</v>
+        <v>36.669234107400001</v>
       </c>
       <c r="K70" s="39">
-        <v>52.254126657496698</v>
+        <v>41.506338675199999</v>
       </c>
       <c r="L70" s="39">
-        <v>51.781048252478101</v>
+        <v>40.854783403699997</v>
       </c>
       <c r="M70" s="36">
-        <v>52.818166930310198</v>
+        <v>42.2178522488</v>
       </c>
       <c r="N70" s="37">
         <v>6644.79827022478</v>
@@ -4330,37 +4445,37 @@
         <v>139</v>
       </c>
       <c r="C71" s="39">
-        <v>37.487429566475697</v>
+        <v>36.85</v>
       </c>
       <c r="D71" s="39">
-        <v>67.561829879733395</v>
+        <v>63.907142857142901</v>
       </c>
       <c r="E71" s="39">
-        <v>88.172442451895193</v>
+        <v>83.814285714285703</v>
       </c>
       <c r="F71" s="39">
         <v>39.6142857142857</v>
       </c>
       <c r="G71" s="36">
-        <v>44.148893304163202</v>
+        <v>46.471428571428604</v>
       </c>
       <c r="H71" s="39">
-        <v>34.086074013934201</v>
+        <v>31.799130874266702</v>
       </c>
       <c r="I71" s="39">
-        <v>34.083000329337601</v>
+        <v>32.493157482933299</v>
       </c>
       <c r="J71" s="36">
-        <v>34.137727407199201</v>
+        <v>31.2953638068667</v>
       </c>
       <c r="K71" s="39">
-        <v>43.775630498433699</v>
+        <v>37.432517114533297</v>
       </c>
       <c r="L71" s="39">
-        <v>39.3368567710205</v>
+        <v>35.375081923800003</v>
       </c>
       <c r="M71" s="36">
-        <v>47.109696273097903</v>
+        <v>39.379821537333299</v>
       </c>
       <c r="N71" s="37">
         <v>13748.2688900056</v>
@@ -4372,37 +4487,37 @@
         <v>140</v>
       </c>
       <c r="C72" s="39">
-        <v>31.579081585415999</v>
+        <v>28.08</v>
       </c>
       <c r="D72" s="39">
-        <v>64.937383939219501</v>
+        <v>58.12</v>
       </c>
       <c r="E72" s="39">
-        <v>87.311159112509102</v>
+        <v>82.9</v>
       </c>
       <c r="F72" s="39">
         <v>38.880000000000003</v>
       </c>
       <c r="G72" s="36">
-        <v>45.043482067670098</v>
+        <v>46.06</v>
       </c>
       <c r="H72" s="39">
-        <v>26.648423187298199</v>
+        <v>35.135141191000002</v>
       </c>
       <c r="I72" s="39">
-        <v>26.854845822009199</v>
+        <v>35.1612210278333</v>
       </c>
       <c r="J72" s="36">
-        <v>26.211842165023501</v>
+        <v>34.690823408500002</v>
       </c>
       <c r="K72" s="39">
-        <v>29.574983264403699</v>
+        <v>38.156206124999997</v>
       </c>
       <c r="L72" s="39">
-        <v>28.329044953383299</v>
+        <v>36.948484446666697</v>
       </c>
       <c r="M72" s="36">
-        <v>30.533012098631399</v>
+        <v>38.9276011673333</v>
       </c>
       <c r="N72" s="37">
         <v>6564.6770913014498</v>
@@ -4414,37 +4529,37 @@
         <v>141</v>
       </c>
       <c r="C73" s="39">
-        <v>54.732228058548301</v>
+        <v>37.962499999999999</v>
       </c>
       <c r="D73" s="39">
-        <v>73.818927413568304</v>
+        <v>55.762500000000003</v>
       </c>
       <c r="E73" s="39">
-        <v>86.346428357944205</v>
+        <v>70.731250000000003</v>
       </c>
       <c r="F73" s="39">
         <v>48.774999999999999</v>
       </c>
       <c r="G73" s="36">
-        <v>54.452012232837298</v>
+        <v>54.6</v>
       </c>
       <c r="H73" s="39">
-        <v>43.058176630088703</v>
+        <v>30.851567778</v>
       </c>
       <c r="I73" s="39">
-        <v>44.597321215160299</v>
+        <v>32.130055857866701</v>
       </c>
       <c r="J73" s="36">
-        <v>41.565419937222799</v>
+        <v>29.629909492933301</v>
       </c>
       <c r="K73" s="39">
-        <v>46.011405490062401</v>
+        <v>34.3390757403333</v>
       </c>
       <c r="L73" s="39">
-        <v>46.215922480488302</v>
+        <v>33.968711240133302</v>
       </c>
       <c r="M73" s="36">
-        <v>45.764531922379803</v>
+        <v>34.5391052020667</v>
       </c>
       <c r="N73" s="37">
         <v>12195.273959271601</v>
@@ -4456,37 +4571,37 @@
         <v>142</v>
       </c>
       <c r="C74" s="35">
-        <v>0.83073523060503995</v>
+        <v>1.875</v>
       </c>
       <c r="D74" s="35">
-        <v>5.9500992670768698</v>
+        <v>9.5250000000000004</v>
       </c>
       <c r="E74" s="35">
-        <v>29.281177495415701</v>
+        <v>33.774999999999999</v>
       </c>
       <c r="F74" s="35">
         <v>33.125</v>
       </c>
       <c r="G74" s="36">
-        <v>41.526803847656602</v>
+        <v>41.325000000000003</v>
       </c>
       <c r="H74" s="35">
-        <v>0.32928681549941002</v>
+        <v>0.70807862119999998</v>
       </c>
       <c r="I74" s="35">
-        <v>0.36495931995426001</v>
+        <v>0.79957719540000005</v>
       </c>
       <c r="J74" s="36">
-        <v>0.31534204225792001</v>
+        <v>0.66870303819999999</v>
       </c>
       <c r="K74" s="35">
-        <v>0.42090338292833002</v>
+        <v>0.98611940480000004</v>
       </c>
       <c r="L74" s="35">
-        <v>0.38159914031462999</v>
+        <v>0.90557989839999997</v>
       </c>
       <c r="M74" s="36">
-        <v>0.43187117286895998</v>
+        <v>1.0195292802</v>
       </c>
       <c r="N74" s="37">
         <v>40737.041918033901</v>
@@ -4498,37 +4613,37 @@
         <v>143</v>
       </c>
       <c r="C75" s="41">
-        <v>3.1879360918360198</v>
+        <v>4.8714285714285701</v>
       </c>
       <c r="D75" s="41">
-        <v>16.493730446551101</v>
+        <v>18.0857142857143</v>
       </c>
       <c r="E75" s="41">
-        <v>41.962812109467201</v>
+        <v>40.142857142857203</v>
       </c>
       <c r="F75" s="41">
         <v>37.485714285714302</v>
       </c>
       <c r="G75" s="42">
-        <v>45.217900182203003</v>
+        <v>44.9428571428571</v>
       </c>
       <c r="H75" s="41">
-        <v>2.9232852638587401</v>
+        <v>2.8548511027000001</v>
       </c>
       <c r="I75" s="41">
-        <v>2.9096687913367201</v>
+        <v>2.7336550897</v>
       </c>
       <c r="J75" s="42">
-        <v>2.9323882411959201</v>
+        <v>2.9629202588000001</v>
       </c>
       <c r="K75" s="41">
-        <v>3.4347489792038899</v>
+        <v>3.6369627481000002</v>
       </c>
       <c r="L75" s="41">
-        <v>2.8306973718087498</v>
+        <v>3.3000894667999998</v>
       </c>
       <c r="M75" s="42">
-        <v>3.8049321985652602</v>
+        <v>3.8664989243000001</v>
       </c>
       <c r="N75" s="43">
         <v>24647.792412618099</v>
@@ -4540,37 +4655,37 @@
         <v>144</v>
       </c>
       <c r="C76" s="39">
-        <v>3.5541138207117098</v>
+        <v>2.4666666666666699</v>
       </c>
       <c r="D76" s="39">
-        <v>8.2494097276122194</v>
+        <v>6.63333333333334</v>
       </c>
       <c r="E76" s="39">
-        <v>19.5031010167733</v>
+        <v>16.8888888888889</v>
       </c>
       <c r="F76" s="39">
         <v>45.155555555555601</v>
       </c>
       <c r="G76" s="36">
-        <v>54.634985179771803</v>
+        <v>50.633333333333297</v>
       </c>
       <c r="H76" s="39">
-        <v>2.3672830306132102</v>
+        <v>2.8904991172500001</v>
       </c>
       <c r="I76" s="39">
-        <v>2.4065357522391402</v>
+        <v>2.9516987156666699</v>
       </c>
       <c r="J76" s="36">
-        <v>2.3299971871027898</v>
+        <v>2.8272734270000002</v>
       </c>
       <c r="K76" s="39">
-        <v>2.1559837195926499</v>
+        <v>2.5555128526666699</v>
       </c>
       <c r="L76" s="39">
-        <v>2.1879646806726099</v>
+        <v>2.8539614100833299</v>
       </c>
       <c r="M76" s="36">
-        <v>2.13199296783176</v>
+        <v>2.3609151821666701</v>
       </c>
       <c r="N76" s="37">
         <v>30865.256812334901</v>
@@ -4582,19 +4697,19 @@
         <v>145</v>
       </c>
       <c r="C77" s="35">
-        <v>0.54610721705774001</v>
+        <v>0.52962962962963001</v>
       </c>
       <c r="D77" s="35">
-        <v>0.94769850235187003</v>
+        <v>0.95925925925926003</v>
       </c>
       <c r="E77" s="35">
-        <v>1.95603888877882</v>
+        <v>2.1074074074074098</v>
       </c>
       <c r="F77" s="35">
         <v>31.325925925925901</v>
       </c>
       <c r="G77" s="36">
-        <v>39.791876989699603</v>
+        <v>39.288888888888899</v>
       </c>
       <c r="H77" s="35" t="s">
         <v>43</v>
@@ -4624,37 +4739,37 @@
         <v>146</v>
       </c>
       <c r="C78" s="41">
-        <v>42.200408229809902</v>
+        <v>32.625</v>
       </c>
       <c r="D78" s="41">
-        <v>64.905576917093597</v>
+        <v>51.641666666666701</v>
       </c>
       <c r="E78" s="41">
-        <v>83.173119545100704</v>
+        <v>71.849999999999994</v>
       </c>
       <c r="F78" s="41">
         <v>42.991666666666703</v>
       </c>
       <c r="G78" s="42">
-        <v>45.710700492077898</v>
+        <v>48.975000000000001</v>
       </c>
       <c r="H78" s="41">
-        <v>36.210514686086398</v>
+        <v>22.762235624500001</v>
       </c>
       <c r="I78" s="41">
-        <v>36.288303686497997</v>
+        <v>23.5199763062143</v>
       </c>
       <c r="J78" s="42">
-        <v>36.083815616584602</v>
+        <v>22.115993443142901</v>
       </c>
       <c r="K78" s="41">
-        <v>44.005313403074297</v>
+        <v>27.096388341142902</v>
       </c>
       <c r="L78" s="41">
-        <v>40.609358894563201</v>
+        <v>25.724818181928601</v>
       </c>
       <c r="M78" s="42">
-        <v>46.4880215497382</v>
+        <v>28.280979642642901</v>
       </c>
       <c r="N78" s="43">
         <v>17936.6206213033</v>
@@ -4666,37 +4781,37 @@
         <v>147</v>
       </c>
       <c r="C79" s="39">
-        <v>1.9606911211628799</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="D79" s="39">
-        <v>7.2223352429327496</v>
+        <v>15.09</v>
       </c>
       <c r="E79" s="39">
-        <v>18.694466707342301</v>
+        <v>30.38</v>
       </c>
       <c r="F79" s="39">
         <v>35.57</v>
       </c>
       <c r="G79" s="36">
-        <v>44.823915734719399</v>
+        <v>43.28</v>
       </c>
       <c r="H79" s="39">
-        <v>5.4423126429857103</v>
+        <v>6.1931287104347899</v>
       </c>
       <c r="I79" s="39">
-        <v>5.1678348942945798</v>
+        <v>6.0572848629565197</v>
       </c>
       <c r="J79" s="36">
-        <v>5.5489763643009997</v>
+        <v>6.1788421047391298</v>
       </c>
       <c r="K79" s="39">
-        <v>5.6109694848599201</v>
+        <v>6.7457172974347799</v>
       </c>
       <c r="L79" s="39">
-        <v>5.3949899938983901</v>
+        <v>6.5526728894782602</v>
       </c>
       <c r="M79" s="36">
-        <v>5.6337213842849101</v>
+        <v>6.8063765727391301</v>
       </c>
       <c r="N79" s="37">
         <v>51451.551991272303</v>
@@ -4708,37 +4823,37 @@
         <v>148</v>
       </c>
       <c r="C80" s="39">
-        <v>32.314716419139302</v>
+        <v>32.974285714285699</v>
       </c>
       <c r="D80" s="39">
-        <v>58.345330414034002</v>
+        <v>55.634285714285703</v>
       </c>
       <c r="E80" s="39">
-        <v>80.248344574149002</v>
+        <v>74.648571428571401</v>
       </c>
       <c r="F80" s="39">
         <v>42.654285714285699</v>
       </c>
       <c r="G80" s="36">
-        <v>47.972619843485901</v>
+        <v>49.428571428571402</v>
       </c>
       <c r="H80" s="39">
-        <v>26.3550406235738</v>
+        <v>31.049850771999999</v>
       </c>
       <c r="I80" s="39">
-        <v>27.193427276530802</v>
+        <v>31.916424795249998</v>
       </c>
       <c r="J80" s="36">
-        <v>25.528978625366001</v>
+        <v>30.217882334055599</v>
       </c>
       <c r="K80" s="39">
-        <v>29.095907809836401</v>
+        <v>34.493241087055601</v>
       </c>
       <c r="L80" s="39">
-        <v>28.540527077821899</v>
+        <v>33.672766807777798</v>
       </c>
       <c r="M80" s="36">
-        <v>29.535354127768201</v>
+        <v>35.200503595666703</v>
       </c>
       <c r="N80" s="37">
         <v>14421.8304505917</v>
@@ -4750,37 +4865,37 @@
         <v>149</v>
       </c>
       <c r="C81" s="35">
-        <v>7.0178727612234901</v>
+        <v>3.0472527472527502</v>
       </c>
       <c r="D81" s="35">
-        <v>22.241521076756499</v>
+        <v>9.4769230769230806</v>
       </c>
       <c r="E81" s="35">
-        <v>40.369273239260401</v>
+        <v>21.2164835164835</v>
       </c>
       <c r="F81" s="35">
         <v>35.857142857142797</v>
       </c>
       <c r="G81" s="36">
-        <v>45.002871842836498</v>
+        <v>43.210989010989003</v>
       </c>
       <c r="H81" s="35">
-        <v>4.8173503831565601</v>
+        <v>3.9092558303220302</v>
       </c>
       <c r="I81" s="35">
-        <v>5.5279898460968404</v>
+        <v>4.0267994251186501</v>
       </c>
       <c r="J81" s="36">
-        <v>4.6114621697336098</v>
+        <v>3.9004407441355902</v>
       </c>
       <c r="K81" s="35">
-        <v>6.2099649295452899</v>
+        <v>4.4983675363389901</v>
       </c>
       <c r="L81" s="35">
-        <v>6.7492044222124097</v>
+        <v>4.3664395138135603</v>
       </c>
       <c r="M81" s="36">
-        <v>6.1207710212913904</v>
+        <v>4.5089590327288098</v>
       </c>
       <c r="N81" s="37">
         <v>38909.910740418702</v>
@@ -4792,37 +4907,37 @@
         <v>150</v>
       </c>
       <c r="C82" s="41">
-        <v>49.113812748640598</v>
+        <v>49.183333333333401</v>
       </c>
       <c r="D82" s="41">
-        <v>75.735142213125997</v>
+        <v>74.955555555555605</v>
       </c>
       <c r="E82" s="41">
-        <v>91.675446257681003</v>
+        <v>91.0277777777778</v>
       </c>
       <c r="F82" s="41">
         <v>40.2777777777778</v>
       </c>
       <c r="G82" s="42">
-        <v>46.8951613523435</v>
+        <v>47.455555555555598</v>
       </c>
       <c r="H82" s="41">
-        <v>42.939074624365603</v>
+        <v>45.3134197727273</v>
       </c>
       <c r="I82" s="41">
-        <v>44.062681295779299</v>
+        <v>46.6078866238636</v>
       </c>
       <c r="J82" s="42">
-        <v>41.749921813315197</v>
+        <v>43.9816546939091</v>
       </c>
       <c r="K82" s="41">
-        <v>45.619755853667598</v>
+        <v>48.941557793181801</v>
       </c>
       <c r="L82" s="41">
-        <v>44.887578540974602</v>
+        <v>47.9597572129545</v>
       </c>
       <c r="M82" s="42">
-        <v>46.1882837083566</v>
+        <v>49.783581426090898</v>
       </c>
       <c r="N82" s="43">
         <v>4720.1199325809002</v>
@@ -4834,37 +4949,37 @@
         <v>151</v>
       </c>
       <c r="C83" s="39">
-        <v>17.043066645889098</v>
+        <v>15.633333333333301</v>
       </c>
       <c r="D83" s="39">
-        <v>44.737997342260002</v>
+        <v>39.766666666666701</v>
       </c>
       <c r="E83" s="39">
-        <v>74.7417593192976</v>
+        <v>70.033333333333402</v>
       </c>
       <c r="F83" s="39">
         <v>37.266666666666701</v>
       </c>
       <c r="G83" s="36">
-        <v>44.681271279087603</v>
+        <v>44.5</v>
       </c>
       <c r="H83" s="39">
-        <v>31.596597588221901</v>
+        <v>26.083182264833301</v>
       </c>
       <c r="I83" s="39">
-        <v>34.567182061367603</v>
+        <v>27.556290800666702</v>
       </c>
       <c r="J83" s="36">
-        <v>30.612842518830799</v>
+        <v>25.356907639500001</v>
       </c>
       <c r="K83" s="39">
-        <v>34.356411038134198</v>
+        <v>26.937408739166699</v>
       </c>
       <c r="L83" s="39">
-        <v>34.5775970397424</v>
+        <v>26.870663611166702</v>
       </c>
       <c r="M83" s="36">
-        <v>33.7791355865456</v>
+        <v>26.343292060833299</v>
       </c>
       <c r="N83" s="37">
         <v>7122.5538811114802</v>
@@ -4876,37 +4991,37 @@
         <v>152</v>
       </c>
       <c r="C84" s="39">
-        <v>28.435335977367</v>
+        <v>26.456521739130402</v>
       </c>
       <c r="D84" s="39">
-        <v>52.6787609297511</v>
+        <v>47.7</v>
       </c>
       <c r="E84" s="39">
-        <v>76.606807950071598</v>
+        <v>70.326086956521806</v>
       </c>
       <c r="F84" s="39">
         <v>42.904347826086997</v>
       </c>
       <c r="G84" s="36">
-        <v>45.474975593479797</v>
+        <v>49.1782608695652</v>
       </c>
       <c r="H84" s="39">
-        <v>22.5455865893022</v>
+        <v>19.347273587381</v>
       </c>
       <c r="I84" s="39">
-        <v>22.724069895237399</v>
+        <v>19.795666088761902</v>
       </c>
       <c r="J84" s="36">
-        <v>22.393111900590899</v>
+        <v>19.029717794714301</v>
       </c>
       <c r="K84" s="39">
-        <v>28.859891977012701</v>
+        <v>23.6817642311429</v>
       </c>
       <c r="L84" s="39">
-        <v>26.579988767218801</v>
+        <v>22.425402201523799</v>
       </c>
       <c r="M84" s="36">
-        <v>30.548669309691899</v>
+        <v>24.787616227571402</v>
       </c>
       <c r="N84" s="37">
         <v>21185.396596049701</v>
@@ -4918,37 +5033,37 @@
         <v>153</v>
       </c>
       <c r="C85" s="39">
-        <v>16.593240214268299</v>
+        <v>8.7272727272727302</v>
       </c>
       <c r="D85" s="39">
-        <v>49.901975401302799</v>
+        <v>27.718181818181801</v>
       </c>
       <c r="E85" s="39">
-        <v>77.217640889683395</v>
+        <v>53.613636363636402</v>
       </c>
       <c r="F85" s="39">
         <v>36.072727272727299</v>
       </c>
       <c r="G85" s="36">
-        <v>44.034161653378803</v>
+        <v>43.890909090909098</v>
       </c>
       <c r="H85" s="39">
-        <v>8.3887684038094203</v>
+        <v>6.9105630903043496</v>
       </c>
       <c r="I85" s="39">
-        <v>9.6056623432336607</v>
+        <v>6.7886239994347903</v>
       </c>
       <c r="J85" s="36">
-        <v>8.0891190451309107</v>
+        <v>6.9879280017826098</v>
       </c>
       <c r="K85" s="39">
-        <v>11.1333485716988</v>
+        <v>8.7487951699130502</v>
       </c>
       <c r="L85" s="39">
-        <v>12.373793900179599</v>
+        <v>8.3277926569130507</v>
       </c>
       <c r="M85" s="36">
-        <v>10.889467441558301</v>
+        <v>8.9454588287826091</v>
       </c>
       <c r="N85" s="37">
         <v>18639.599077180701</v>
@@ -4960,37 +5075,37 @@
         <v>154</v>
       </c>
       <c r="C86" s="39">
-        <v>17.858554181875199</v>
+        <v>12.6</v>
       </c>
       <c r="D86" s="39">
-        <v>36.1400733616371</v>
+        <v>28.824999999999999</v>
       </c>
       <c r="E86" s="39">
-        <v>55.933830028906897</v>
+        <v>49.8</v>
       </c>
       <c r="F86" s="39">
         <v>53.35</v>
       </c>
       <c r="G86" s="36">
-        <v>66.898613746582598</v>
+        <v>58.7</v>
       </c>
       <c r="H86" s="39">
-        <v>5.1913240319582803</v>
+        <v>5.5369664590000003</v>
       </c>
       <c r="I86" s="39">
-        <v>5.4813240778312897</v>
+        <v>6.1871203356666697</v>
       </c>
       <c r="J86" s="36">
-        <v>4.9619109047831502</v>
+        <v>5.0328706551666702</v>
       </c>
       <c r="K86" s="39">
-        <v>6.2173084516202799</v>
+        <v>7.8317317209999997</v>
       </c>
       <c r="L86" s="39">
-        <v>5.4810038950042301</v>
+        <v>7.7062337741666704</v>
       </c>
       <c r="M86" s="36">
-        <v>6.6906823873291899</v>
+        <v>7.88114290316667</v>
       </c>
       <c r="N86" s="37">
         <v>43375.880512568001</v>
@@ -5002,37 +5117,37 @@
         <v>155</v>
       </c>
       <c r="C87" s="39">
-        <v>1.3101317703325499</v>
+        <v>1.8472222222222201</v>
       </c>
       <c r="D87" s="39">
-        <v>6.9948047752791798</v>
+        <v>6.95</v>
       </c>
       <c r="E87" s="39">
-        <v>24.010262084506898</v>
+        <v>21.313888888888901</v>
       </c>
       <c r="F87" s="39">
         <v>39.125</v>
       </c>
       <c r="G87" s="36">
-        <v>46.835473865569902</v>
+        <v>45.941666666666698</v>
       </c>
       <c r="H87" s="39">
-        <v>1.1158930783190499</v>
+        <v>1.44938566728205</v>
       </c>
       <c r="I87" s="39">
-        <v>1.1836243278545699</v>
+        <v>1.39944513925641</v>
       </c>
       <c r="J87" s="36">
-        <v>1.0651064175279099</v>
+        <v>1.49065380869231</v>
       </c>
       <c r="K87" s="39">
-        <v>1.23289495397087</v>
+        <v>1.44941507666667</v>
       </c>
       <c r="L87" s="39">
-        <v>1.1274388763596701</v>
+        <v>1.3999702615384599</v>
       </c>
       <c r="M87" s="36">
-        <v>1.30362464263358</v>
+        <v>1.47451369525641</v>
       </c>
       <c r="N87" s="37">
         <v>35483.897615544302</v>
@@ -5044,37 +5159,37 @@
         <v>156</v>
       </c>
       <c r="C88" s="35">
-        <v>0.62668069376653002</v>
+        <v>0.46904761904761999</v>
       </c>
       <c r="D88" s="35">
-        <v>0.91318162285556004</v>
+        <v>0.93571428571429005</v>
       </c>
       <c r="E88" s="35">
-        <v>1.6210199247939301</v>
+        <v>2.31666666666667</v>
       </c>
       <c r="F88" s="35">
         <v>33.0571428571429</v>
       </c>
       <c r="G88" s="36">
-        <v>42.345936548085596</v>
+        <v>40.704761904761902</v>
       </c>
       <c r="H88" s="35">
-        <v>4.8058453666380001E-2</v>
+        <v>7.8407739000000004E-2</v>
       </c>
       <c r="I88" s="35">
-        <v>3.978966038442E-2</v>
+        <v>6.066706806667E-2</v>
       </c>
       <c r="J88" s="36">
-        <v>5.1687358975269999E-2</v>
+        <v>8.6003682666669995E-2</v>
       </c>
       <c r="K88" s="35">
-        <v>4.338218405805E-2</v>
+        <v>8.4377228799999995E-2</v>
       </c>
       <c r="L88" s="35">
-        <v>4.0803757766709997E-2</v>
+        <v>7.0060457466670001E-2</v>
       </c>
       <c r="M88" s="36">
-        <v>4.2932750591880002E-2</v>
+        <v>9.0010628733330003E-2</v>
       </c>
       <c r="N88" s="37">
         <v>93237.525534888206</v>
@@ -5086,37 +5201,37 @@
         <v>157</v>
       </c>
       <c r="C89" s="41">
-        <v>48.804822543825701</v>
+        <v>44.242857142857098</v>
       </c>
       <c r="D89" s="41">
-        <v>74.949509958023697</v>
+        <v>69.235714285714295</v>
       </c>
       <c r="E89" s="41">
-        <v>90.990145841496101</v>
+        <v>87.157142857142901</v>
       </c>
       <c r="F89" s="41">
         <v>42.2392857142857</v>
       </c>
       <c r="G89" s="42">
-        <v>47.927519719448</v>
+        <v>48.835714285714303</v>
       </c>
       <c r="H89" s="41">
-        <v>41.172330591417797</v>
+        <v>41.182188091433297</v>
       </c>
       <c r="I89" s="41">
-        <v>42.255721051601498</v>
+        <v>42.151744008133299</v>
       </c>
       <c r="J89" s="42">
-        <v>40.079010820019001</v>
+        <v>40.240540523</v>
       </c>
       <c r="K89" s="41">
-        <v>44.498352187742199</v>
+        <v>45.378849685666701</v>
       </c>
       <c r="L89" s="41">
-        <v>43.878163861977797</v>
+        <v>44.217786403866697</v>
       </c>
       <c r="M89" s="42">
-        <v>45.047376942785398</v>
+        <v>46.439729833966702</v>
       </c>
       <c r="N89" s="43">
         <v>5801.0732298510202</v>
@@ -5128,37 +5243,37 @@
         <v>158</v>
       </c>
       <c r="C90" s="39">
-        <v>13.0966724883847</v>
+        <v>14.5454545454546</v>
       </c>
       <c r="D90" s="39">
-        <v>45.343376524963098</v>
+        <v>42.772727272727302</v>
       </c>
       <c r="E90" s="39">
-        <v>78.067282011701096</v>
+        <v>72.736363636363706</v>
       </c>
       <c r="F90" s="39">
         <v>35.454545454545503</v>
       </c>
       <c r="G90" s="36">
-        <v>41.778644653427399</v>
+        <v>43.445454545454602</v>
       </c>
       <c r="H90" s="39">
-        <v>14.837855222412401</v>
+        <v>16.6096354914546</v>
       </c>
       <c r="I90" s="39">
-        <v>16.741019814506899</v>
+        <v>17.6748402732727</v>
       </c>
       <c r="J90" s="36">
-        <v>14.2079226803098</v>
+        <v>16.381876863999999</v>
       </c>
       <c r="K90" s="39">
-        <v>16.403034438826101</v>
+        <v>18.319998157636402</v>
       </c>
       <c r="L90" s="39">
-        <v>17.3304151176213</v>
+        <v>18.783263706090899</v>
       </c>
       <c r="M90" s="36">
-        <v>15.945508936654001</v>
+        <v>18.009153853727302</v>
       </c>
       <c r="N90" s="37">
         <v>9787.0967174948692</v>
@@ -5170,37 +5285,37 @@
         <v>159</v>
       </c>
       <c r="C91" s="39">
-        <v>32.1233552730179</v>
+        <v>21.316666666666698</v>
       </c>
       <c r="D91" s="39">
-        <v>45.564204662816799</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="E91" s="39">
-        <v>59.795867585415998</v>
+        <v>50.966666666666697</v>
       </c>
       <c r="F91" s="39">
         <v>46.383333333333297</v>
       </c>
       <c r="G91" s="36">
-        <v>51.700811752694598</v>
+        <v>52.433333333333401</v>
       </c>
       <c r="H91" s="39">
-        <v>27.3954685527534</v>
+        <v>18.550077423249999</v>
       </c>
       <c r="I91" s="39">
-        <v>28.409756069562199</v>
+        <v>19.443638153249999</v>
       </c>
       <c r="J91" s="36">
-        <v>26.535260022241999</v>
+        <v>17.82660184625</v>
       </c>
       <c r="K91" s="39">
-        <v>30.4144572600609</v>
+        <v>21.453737697000001</v>
       </c>
       <c r="L91" s="39">
-        <v>29.863184981028301</v>
+        <v>20.856038684249999</v>
       </c>
       <c r="M91" s="36">
-        <v>30.955984602623001</v>
+        <v>22.033208229749999</v>
       </c>
       <c r="N91" s="37">
         <v>18707.397588832901</v>
@@ -5212,37 +5327,37 @@
         <v>160</v>
       </c>
       <c r="C92" s="39">
-        <v>12.658338810163899</v>
+        <v>9.25833333333334</v>
       </c>
       <c r="D92" s="39">
-        <v>28.400255844870301</v>
+        <v>25.691666666666698</v>
       </c>
       <c r="E92" s="39">
-        <v>48.942376616913599</v>
+        <v>48.141666666666701</v>
       </c>
       <c r="F92" s="39">
         <v>38.575000000000003</v>
       </c>
       <c r="G92" s="36">
-        <v>47.6186831633038</v>
+        <v>45.75</v>
       </c>
       <c r="H92" s="39">
-        <v>7.66211440575489</v>
+        <v>5.7294212360624996</v>
       </c>
       <c r="I92" s="39">
-        <v>8.9820836803592599</v>
+        <v>6.0663125970624998</v>
       </c>
       <c r="J92" s="36">
-        <v>6.4398800826331701</v>
+        <v>5.4116786033124997</v>
       </c>
       <c r="K92" s="39">
-        <v>7.4514897871562003</v>
+        <v>6.2620456868124998</v>
       </c>
       <c r="L92" s="39">
-        <v>7.8630190940853799</v>
+        <v>6.3949955134999996</v>
       </c>
       <c r="M92" s="36">
-        <v>7.25706937692311</v>
+        <v>6.2113037428749998</v>
       </c>
       <c r="N92" s="37">
         <v>36556.017348458401</v>
@@ -5254,37 +5369,37 @@
         <v>161</v>
       </c>
       <c r="C93" s="39">
-        <v>42.418237883007897</v>
+        <v>43.507692307692302</v>
       </c>
       <c r="D93" s="39">
-        <v>72.824823452495707</v>
+        <v>68.869230769230796</v>
       </c>
       <c r="E93" s="39">
-        <v>89.963200743368304</v>
+        <v>85.407692307692301</v>
       </c>
       <c r="F93" s="39">
         <v>43.992307692307698</v>
       </c>
       <c r="G93" s="36">
-        <v>47.110803242424403</v>
+        <v>50.623076923076901</v>
       </c>
       <c r="H93" s="39">
-        <v>35.956313236145803</v>
+        <v>38.877597755133301</v>
       </c>
       <c r="I93" s="39">
-        <v>37.266955742258197</v>
+        <v>40.213007280266702</v>
       </c>
       <c r="J93" s="36">
-        <v>34.789770533393003</v>
+        <v>37.683883849933302</v>
       </c>
       <c r="K93" s="39">
-        <v>38.975129420687203</v>
+        <v>42.377744920466696</v>
       </c>
       <c r="L93" s="39">
-        <v>37.729747924306899</v>
+        <v>40.963259516733302</v>
       </c>
       <c r="M93" s="36">
-        <v>40.030945590012699</v>
+        <v>43.506003688933298</v>
       </c>
       <c r="N93" s="37">
         <v>4944.6391262305397</v>
@@ -5296,37 +5411,37 @@
         <v>161</v>
       </c>
       <c r="C94" s="35">
-        <v>6.89639680821006</v>
+        <v>4.56666666666667</v>
       </c>
       <c r="D94" s="35">
-        <v>23.009350402339599</v>
+        <v>15.8</v>
       </c>
       <c r="E94" s="35">
-        <v>45.583064275359902</v>
+        <v>38.274999999999999</v>
       </c>
       <c r="F94" s="35">
         <v>34.266666666666701</v>
       </c>
       <c r="G94" s="36">
-        <v>41.898206123611402</v>
+        <v>42.158333333333303</v>
       </c>
       <c r="H94" s="35">
-        <v>13.614382334127701</v>
+        <v>5.9180280510624996</v>
       </c>
       <c r="I94" s="35">
-        <v>15.6058935796545</v>
+        <v>6.4510336330625</v>
       </c>
       <c r="J94" s="36">
-        <v>13.3678147380918</v>
+        <v>5.90805831575</v>
       </c>
       <c r="K94" s="35">
-        <v>15.9416591502741</v>
+        <v>7.0814504625000003</v>
       </c>
       <c r="L94" s="35">
-        <v>17.249697246168399</v>
+        <v>7.6340098164374997</v>
       </c>
       <c r="M94" s="36">
-        <v>15.372750345858501</v>
+        <v>6.7904622848124996</v>
       </c>
       <c r="N94" s="37">
         <v>18414.9295891031</v>
@@ -5338,37 +5453,37 @@
         <v>162</v>
       </c>
       <c r="C95" s="41">
-        <v>41.6571704663559</v>
+        <v>39.304000000000002</v>
       </c>
       <c r="D95" s="41">
-        <v>70.879186116606803</v>
+        <v>64.959999999999994</v>
       </c>
       <c r="E95" s="41">
-        <v>89.529645080188303</v>
+        <v>84.488</v>
       </c>
       <c r="F95" s="41">
         <v>42.183999999999997</v>
       </c>
       <c r="G95" s="42">
-        <v>46.671579502672301</v>
+        <v>48.783999999999999</v>
       </c>
       <c r="H95" s="41">
-        <v>33.997966280962601</v>
+        <v>30.812309176964298</v>
       </c>
       <c r="I95" s="41">
-        <v>34.780100742633003</v>
+        <v>32.057992407178602</v>
       </c>
       <c r="J95" s="42">
-        <v>33.244365170244997</v>
+        <v>29.6869407962857</v>
       </c>
       <c r="K95" s="41">
-        <v>40.605901208528799</v>
+        <v>35.365449588678601</v>
       </c>
       <c r="L95" s="41">
-        <v>38.2964817728094</v>
+        <v>34.114200669964298</v>
       </c>
       <c r="M95" s="42">
-        <v>42.283840242539497</v>
+        <v>36.374137161857099</v>
       </c>
       <c r="N95" s="43">
         <v>10182.5565159119</v>
@@ -5380,37 +5495,37 @@
         <v>163</v>
       </c>
       <c r="C96" s="39">
-        <v>6.8351692132214099</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="D96" s="39">
-        <v>32.807025724628197</v>
+        <v>30.68</v>
       </c>
       <c r="E96" s="39">
-        <v>64.913142232233596</v>
+        <v>58.21</v>
       </c>
       <c r="F96" s="39">
         <v>39.15</v>
       </c>
       <c r="G96" s="36">
-        <v>43.464371698737203</v>
+        <v>46.41</v>
       </c>
       <c r="H96" s="39">
-        <v>5.4911974027435004</v>
+        <v>8.9048606587142896</v>
       </c>
       <c r="I96" s="39">
-        <v>5.9289273534798701</v>
+        <v>8.9195112647142896</v>
       </c>
       <c r="J96" s="36">
-        <v>5.3154673714116498</v>
+        <v>8.8463487259285696</v>
       </c>
       <c r="K96" s="39">
-        <v>6.3028704278407099</v>
+        <v>11.0746235814286</v>
       </c>
       <c r="L96" s="39">
-        <v>6.5293642679556703</v>
+        <v>10.285506924071401</v>
       </c>
       <c r="M96" s="36">
-        <v>6.2315386831162298</v>
+        <v>11.4412873598571</v>
       </c>
       <c r="N96" s="37">
         <v>17963.221970714101</v>
@@ -5422,37 +5537,37 @@
         <v>164</v>
       </c>
       <c r="C97" s="45">
-        <v>40.262859776066698</v>
+        <v>35.375</v>
       </c>
       <c r="D97" s="45">
-        <v>61.458701765282697</v>
+        <v>58.774999999999999</v>
       </c>
       <c r="E97" s="45">
-        <v>83.143588100042294</v>
+        <v>81.900000000000006</v>
       </c>
       <c r="F97" s="45">
         <v>39.299999999999997</v>
       </c>
       <c r="G97" s="46">
-        <v>45.270697745836699</v>
+        <v>46.237499999999997</v>
       </c>
       <c r="H97" s="45">
-        <v>40.457136785818598</v>
+        <v>40.792825999249999</v>
       </c>
       <c r="I97" s="45">
-        <v>41.874247782216898</v>
+        <v>41.829082686749999</v>
       </c>
       <c r="J97" s="46">
-        <v>39.6395125773725</v>
+        <v>39.9045869974167</v>
       </c>
       <c r="K97" s="45">
-        <v>42.295570171324798</v>
+        <v>42.738309292250001</v>
       </c>
       <c r="L97" s="45">
-        <v>41.905577056887999</v>
+        <v>41.962358146</v>
       </c>
       <c r="M97" s="46">
-        <v>42.386180183046399</v>
+        <v>42.993539719416702</v>
       </c>
       <c r="N97" s="47">
         <v>13957.2720523399</v>
@@ -5475,105 +5590,237 @@
       <c r="N98" s="50"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
+      <c r="A99" s="51" t="s">
         <v>165</v>
       </c>
-      <c r="B99" s="51"/>
-      <c r="C99" s="52"/>
-      <c r="D99" s="52"/>
-      <c r="E99" s="52"/>
-      <c r="F99" s="52"/>
-      <c r="G99" s="52"/>
-      <c r="H99" s="52"/>
-      <c r="I99" s="52"/>
-      <c r="J99" s="52"/>
-      <c r="K99" s="52"/>
-      <c r="L99" s="52"/>
-      <c r="M99" s="52"/>
-      <c r="N99" s="53"/>
+      <c r="B99" s="52"/>
+      <c r="C99" s="53"/>
+      <c r="D99" s="53"/>
+      <c r="E99" s="53"/>
+      <c r="F99" s="53"/>
+      <c r="G99" s="53"/>
+      <c r="H99" s="53"/>
+      <c r="I99" s="53"/>
+      <c r="J99" s="53"/>
+      <c r="K99" s="53"/>
+      <c r="L99" s="53"/>
+      <c r="M99" s="53"/>
+      <c r="N99" s="54"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
+      <c r="A100" s="51" t="s">
         <v>166</v>
       </c>
-      <c r="B100" s="51"/>
-      <c r="C100" s="52"/>
-      <c r="D100" s="52"/>
-      <c r="E100" s="52"/>
-      <c r="F100" s="52"/>
-      <c r="G100" s="52"/>
-      <c r="H100" s="52"/>
-      <c r="I100" s="52"/>
-      <c r="J100" s="52"/>
-      <c r="K100" s="52"/>
-      <c r="L100" s="52"/>
-      <c r="M100" s="52"/>
-      <c r="N100" s="53"/>
+      <c r="B100" s="52"/>
+      <c r="C100" s="53"/>
+      <c r="D100" s="53"/>
+      <c r="E100" s="53"/>
+      <c r="F100" s="53"/>
+      <c r="G100" s="53"/>
+      <c r="H100" s="53"/>
+      <c r="I100" s="53"/>
+      <c r="J100" s="53"/>
+      <c r="K100" s="53"/>
+      <c r="L100" s="53"/>
+      <c r="M100" s="53"/>
+      <c r="N100" s="54"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
+      <c r="A101" s="51" t="s">
         <v>167</v>
       </c>
-      <c r="B101" s="51"/>
-      <c r="C101" s="52"/>
-      <c r="D101" s="52"/>
-      <c r="E101" s="52"/>
-      <c r="F101" s="52"/>
-      <c r="G101" s="52"/>
-      <c r="H101" s="52"/>
-      <c r="I101" s="52"/>
-      <c r="J101" s="52"/>
-      <c r="K101" s="52"/>
-      <c r="L101" s="52"/>
-      <c r="M101" s="52"/>
-      <c r="N101" s="53"/>
+      <c r="B101" s="52"/>
+      <c r="C101" s="53"/>
+      <c r="D101" s="53"/>
+      <c r="E101" s="53"/>
+      <c r="F101" s="53"/>
+      <c r="G101" s="53"/>
+      <c r="H101" s="53"/>
+      <c r="I101" s="53"/>
+      <c r="J101" s="53"/>
+      <c r="K101" s="53"/>
+      <c r="L101" s="53"/>
+      <c r="M101" s="53"/>
+      <c r="N101" s="54"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
+      <c r="A102" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="B102" s="51"/>
-      <c r="C102" s="52"/>
-      <c r="D102" s="52"/>
-      <c r="E102" s="52"/>
-      <c r="F102" s="52"/>
-      <c r="G102" s="52"/>
-      <c r="H102" s="52"/>
-      <c r="I102" s="52"/>
-      <c r="J102" s="52"/>
-      <c r="K102" s="52"/>
-      <c r="L102" s="52"/>
-      <c r="M102" s="52"/>
-      <c r="N102" s="53"/>
+      <c r="B102" s="52"/>
+      <c r="C102" s="53"/>
+      <c r="D102" s="53"/>
+      <c r="E102" s="53"/>
+      <c r="F102" s="53"/>
+      <c r="G102" s="53"/>
+      <c r="H102" s="53"/>
+      <c r="I102" s="53"/>
+      <c r="J102" s="53"/>
+      <c r="K102" s="53"/>
+      <c r="L102" s="53"/>
+      <c r="M102" s="53"/>
+      <c r="N102" s="54"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
+      <c r="A103" s="51" t="s">
         <v>169</v>
       </c>
-      <c r="B103" s="51"/>
-      <c r="C103" s="52"/>
-      <c r="D103" s="52"/>
-      <c r="E103" s="52"/>
-      <c r="F103" s="52"/>
-      <c r="G103" s="52"/>
-      <c r="H103" s="52"/>
-      <c r="I103" s="52"/>
-      <c r="J103" s="52"/>
-      <c r="K103" s="52"/>
-      <c r="L103" s="52"/>
-      <c r="M103" s="52"/>
-      <c r="N103" s="53"/>
+      <c r="B103" s="52"/>
+      <c r="C103" s="53"/>
+      <c r="D103" s="53"/>
+      <c r="E103" s="53"/>
+      <c r="F103" s="53"/>
+      <c r="G103" s="53"/>
+      <c r="H103" s="53"/>
+      <c r="I103" s="53"/>
+      <c r="J103" s="53"/>
+      <c r="K103" s="53"/>
+      <c r="L103" s="53"/>
+      <c r="M103" s="53"/>
+      <c r="N103" s="54"/>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B104" s="52"/>
+      <c r="C104" s="53"/>
+      <c r="D104" s="53"/>
+      <c r="E104" s="53"/>
+      <c r="F104" s="53"/>
+      <c r="G104" s="53"/>
+      <c r="H104" s="53"/>
+      <c r="I104" s="53"/>
+      <c r="J104" s="53"/>
+      <c r="K104" s="53"/>
+      <c r="L104" s="53"/>
+      <c r="M104" s="53"/>
+      <c r="N104" s="54"/>
     </row>
     <row r="105" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B105" s="54" t="s">
+      <c r="B105" s="55" t="s">
         <v>170</v>
       </c>
+      <c r="C105" s="53"/>
+      <c r="D105" s="53"/>
+      <c r="E105" s="53"/>
+      <c r="F105" s="53"/>
+      <c r="G105" s="53"/>
+      <c r="H105" s="53"/>
+      <c r="I105" s="53"/>
+      <c r="J105" s="53"/>
+      <c r="K105" s="53"/>
+      <c r="L105" s="53"/>
+      <c r="M105" s="53"/>
+      <c r="N105" s="54"/>
+    </row>
+    <row r="106" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B106" s="55"/>
+      <c r="C106" s="53"/>
+      <c r="D106" s="53"/>
+      <c r="E106" s="53"/>
+      <c r="F106" s="53"/>
+      <c r="G106" s="53"/>
+      <c r="H106" s="53"/>
+      <c r="I106" s="53"/>
+      <c r="J106" s="53"/>
+      <c r="K106" s="53"/>
+      <c r="L106" s="53"/>
+      <c r="M106" s="53"/>
+      <c r="N106" s="54"/>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B107" s="56" t="s">
+        <v>171</v>
+      </c>
+      <c r="C107" s="53"/>
+      <c r="D107" s="53"/>
+      <c r="E107" s="53"/>
+      <c r="F107" s="53"/>
+      <c r="G107" s="53"/>
+      <c r="H107" s="53"/>
+      <c r="I107" s="53"/>
+      <c r="J107" s="53"/>
+      <c r="K107" s="53"/>
+      <c r="L107" s="53"/>
+      <c r="M107" s="53"/>
+      <c r="N107" s="54"/>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B108" s="56" t="s">
+        <v>172</v>
+      </c>
+      <c r="C108" s="53"/>
+      <c r="D108" s="53"/>
+      <c r="E108" s="53"/>
+      <c r="F108" s="53"/>
+      <c r="G108" s="53"/>
+      <c r="H108" s="53"/>
+      <c r="I108" s="53"/>
+      <c r="J108" s="53"/>
+      <c r="K108" s="53"/>
+      <c r="L108" s="53"/>
+      <c r="M108" s="53"/>
+      <c r="N108" s="54"/>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B109" s="56" t="s">
+        <v>173</v>
+      </c>
+      <c r="C109" s="53"/>
+      <c r="D109" s="53"/>
+      <c r="E109" s="53"/>
+      <c r="F109" s="53"/>
+      <c r="G109" s="53"/>
+      <c r="H109" s="53"/>
+      <c r="I109" s="53"/>
+      <c r="J109" s="53"/>
+      <c r="K109" s="53"/>
+      <c r="L109" s="53"/>
+      <c r="M109" s="53"/>
+      <c r="N109" s="54"/>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B110" s="56" t="s">
+        <v>174</v>
+      </c>
+      <c r="C110" s="53"/>
+      <c r="D110" s="53"/>
+      <c r="E110" s="53"/>
+      <c r="F110" s="53"/>
+      <c r="G110" s="53"/>
+      <c r="H110" s="53"/>
+      <c r="I110" s="53"/>
+      <c r="J110" s="53"/>
+      <c r="K110" s="53"/>
+      <c r="L110" s="53"/>
+      <c r="M110" s="53"/>
+      <c r="N110" s="54"/>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B111" s="56" t="s">
+        <v>175</v>
+      </c>
+      <c r="C111" s="53"/>
+      <c r="D111" s="53"/>
+      <c r="E111" s="53"/>
+      <c r="F111" s="53"/>
+      <c r="G111" s="53"/>
+      <c r="H111" s="53"/>
+      <c r="I111" s="53"/>
+      <c r="J111" s="53"/>
+      <c r="K111" s="53"/>
+      <c r="L111" s="53"/>
+      <c r="M111" s="53"/>
+      <c r="N111" s="54"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B105" r:id="rId1"/>
+    <hyperlink ref="B105" r:id="rId1" display="Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les séries chronologiques historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-fr-2020."/>
+    <hyperlink ref="B107" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails."/>
+    <hyperlink ref="B108" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs."/>
+    <hyperlink ref="B109" r:id="rId2"/>
+    <hyperlink ref="B111" r:id="rId3"/>
+    <hyperlink ref="B110" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="48" fitToHeight="0" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="48" fitToHeight="0" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>